--- a/Resources/Gantt/Pizzaria_Planejamento.xlsx
+++ b/Resources/Gantt/Pizzaria_Planejamento.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E6A4000-926D-4864-844C-CC55A68696AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8085D936-E3C7-4639-8978-D1002B90D125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
   <si>
     <t>Crie um cronograma de projeto nesta planilha.
 Digite o título desse projeto na célula B1. 
@@ -1275,6 +1275,12 @@
     <xf numFmtId="167" fontId="11" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1286,12 +1292,6 @@
     </xf>
     <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1902,9 +1902,9 @@
   </sheetPr>
   <dimension ref="A1:BL30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1955,107 +1955,107 @@
       <c r="B3" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="82">
-        <f ca="1">TODAY()</f>
-        <v>45417</v>
-      </c>
-      <c r="F3" s="82"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="84">
+        <f>DATE(2024,3,4)</f>
+        <v>45355</v>
+      </c>
+      <c r="F3" s="84"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="84"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="79">
-        <f ca="1">I5</f>
+        <v>7</v>
+      </c>
+      <c r="I4" s="81">
+        <f>I5</f>
+        <v>45397</v>
+      </c>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="81">
+        <f>P5</f>
+        <v>45404</v>
+      </c>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="83"/>
+      <c r="W4" s="81">
+        <f>W5</f>
+        <v>45411</v>
+      </c>
+      <c r="X4" s="82"/>
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="82"/>
+      <c r="AA4" s="82"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="83"/>
+      <c r="AD4" s="81">
+        <f>AD5</f>
         <v>45418</v>
       </c>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="79">
-        <f ca="1">P5</f>
+      <c r="AE4" s="82"/>
+      <c r="AF4" s="82"/>
+      <c r="AG4" s="82"/>
+      <c r="AH4" s="82"/>
+      <c r="AI4" s="82"/>
+      <c r="AJ4" s="83"/>
+      <c r="AK4" s="81">
+        <f>AK5</f>
         <v>45425</v>
       </c>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="80"/>
-      <c r="U4" s="80"/>
-      <c r="V4" s="81"/>
-      <c r="W4" s="79">
-        <f ca="1">W5</f>
+      <c r="AL4" s="82"/>
+      <c r="AM4" s="82"/>
+      <c r="AN4" s="82"/>
+      <c r="AO4" s="82"/>
+      <c r="AP4" s="82"/>
+      <c r="AQ4" s="83"/>
+      <c r="AR4" s="81">
+        <f>AR5</f>
         <v>45432</v>
       </c>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="80"/>
-      <c r="Z4" s="80"/>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="80"/>
-      <c r="AC4" s="81"/>
-      <c r="AD4" s="79">
-        <f ca="1">AD5</f>
+      <c r="AS4" s="82"/>
+      <c r="AT4" s="82"/>
+      <c r="AU4" s="82"/>
+      <c r="AV4" s="82"/>
+      <c r="AW4" s="82"/>
+      <c r="AX4" s="83"/>
+      <c r="AY4" s="81">
+        <f>AY5</f>
         <v>45439</v>
       </c>
-      <c r="AE4" s="80"/>
-      <c r="AF4" s="80"/>
-      <c r="AG4" s="80"/>
-      <c r="AH4" s="80"/>
-      <c r="AI4" s="80"/>
-      <c r="AJ4" s="81"/>
-      <c r="AK4" s="79">
-        <f ca="1">AK5</f>
+      <c r="AZ4" s="82"/>
+      <c r="BA4" s="82"/>
+      <c r="BB4" s="82"/>
+      <c r="BC4" s="82"/>
+      <c r="BD4" s="82"/>
+      <c r="BE4" s="83"/>
+      <c r="BF4" s="81">
+        <f>BF5</f>
         <v>45446</v>
       </c>
-      <c r="AL4" s="80"/>
-      <c r="AM4" s="80"/>
-      <c r="AN4" s="80"/>
-      <c r="AO4" s="80"/>
-      <c r="AP4" s="80"/>
-      <c r="AQ4" s="81"/>
-      <c r="AR4" s="79">
-        <f ca="1">AR5</f>
-        <v>45453</v>
-      </c>
-      <c r="AS4" s="80"/>
-      <c r="AT4" s="80"/>
-      <c r="AU4" s="80"/>
-      <c r="AV4" s="80"/>
-      <c r="AW4" s="80"/>
-      <c r="AX4" s="81"/>
-      <c r="AY4" s="79">
-        <f ca="1">AY5</f>
-        <v>45460</v>
-      </c>
-      <c r="AZ4" s="80"/>
-      <c r="BA4" s="80"/>
-      <c r="BB4" s="80"/>
-      <c r="BC4" s="80"/>
-      <c r="BD4" s="80"/>
-      <c r="BE4" s="81"/>
-      <c r="BF4" s="79">
-        <f ca="1">BF5</f>
-        <v>45467</v>
-      </c>
-      <c r="BG4" s="80"/>
-      <c r="BH4" s="80"/>
-      <c r="BI4" s="80"/>
-      <c r="BJ4" s="80"/>
-      <c r="BK4" s="80"/>
-      <c r="BL4" s="81"/>
+      <c r="BG4" s="82"/>
+      <c r="BH4" s="82"/>
+      <c r="BI4" s="82"/>
+      <c r="BJ4" s="82"/>
+      <c r="BK4" s="82"/>
+      <c r="BL4" s="83"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="43" t="s">
@@ -2068,228 +2068,228 @@
       <c r="F5" s="60"/>
       <c r="G5" s="60"/>
       <c r="I5" s="76">
-        <f ca="1">Início_do_projeto-WEEKDAY(Início_do_projeto,1)+2+7*(Semana_de_exibição-1)</f>
+        <f>Início_do_projeto-WEEKDAY(Início_do_projeto,1)+2+7*(Semana_de_exibição-1)</f>
+        <v>45397</v>
+      </c>
+      <c r="J5" s="77">
+        <f>I5+1</f>
+        <v>45398</v>
+      </c>
+      <c r="K5" s="77">
+        <f t="shared" ref="K5:AX5" si="0">J5+1</f>
+        <v>45399</v>
+      </c>
+      <c r="L5" s="77">
+        <f t="shared" si="0"/>
+        <v>45400</v>
+      </c>
+      <c r="M5" s="77">
+        <f t="shared" si="0"/>
+        <v>45401</v>
+      </c>
+      <c r="N5" s="77">
+        <f t="shared" si="0"/>
+        <v>45402</v>
+      </c>
+      <c r="O5" s="78">
+        <f>N5+1</f>
+        <v>45403</v>
+      </c>
+      <c r="P5" s="76">
+        <f>O5+1</f>
+        <v>45404</v>
+      </c>
+      <c r="Q5" s="77">
+        <f>P5+1</f>
+        <v>45405</v>
+      </c>
+      <c r="R5" s="77">
+        <f t="shared" si="0"/>
+        <v>45406</v>
+      </c>
+      <c r="S5" s="77">
+        <f t="shared" si="0"/>
+        <v>45407</v>
+      </c>
+      <c r="T5" s="77">
+        <f t="shared" si="0"/>
+        <v>45408</v>
+      </c>
+      <c r="U5" s="77">
+        <f t="shared" si="0"/>
+        <v>45409</v>
+      </c>
+      <c r="V5" s="78">
+        <f t="shared" si="0"/>
+        <v>45410</v>
+      </c>
+      <c r="W5" s="76">
+        <f>V5+1</f>
+        <v>45411</v>
+      </c>
+      <c r="X5" s="77">
+        <f>W5+1</f>
+        <v>45412</v>
+      </c>
+      <c r="Y5" s="77">
+        <f t="shared" si="0"/>
+        <v>45413</v>
+      </c>
+      <c r="Z5" s="77">
+        <f t="shared" si="0"/>
+        <v>45414</v>
+      </c>
+      <c r="AA5" s="77">
+        <f t="shared" si="0"/>
+        <v>45415</v>
+      </c>
+      <c r="AB5" s="77">
+        <f t="shared" si="0"/>
+        <v>45416</v>
+      </c>
+      <c r="AC5" s="78">
+        <f t="shared" si="0"/>
+        <v>45417</v>
+      </c>
+      <c r="AD5" s="76">
+        <f>AC5+1</f>
         <v>45418</v>
       </c>
-      <c r="J5" s="77">
-        <f ca="1">I5+1</f>
+      <c r="AE5" s="77">
+        <f>AD5+1</f>
         <v>45419</v>
       </c>
-      <c r="K5" s="77">
-        <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
+      <c r="AF5" s="77">
+        <f t="shared" si="0"/>
         <v>45420</v>
       </c>
-      <c r="L5" s="77">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AG5" s="77">
+        <f t="shared" si="0"/>
         <v>45421</v>
       </c>
-      <c r="M5" s="77">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AH5" s="77">
+        <f t="shared" si="0"/>
         <v>45422</v>
       </c>
-      <c r="N5" s="77">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AI5" s="77">
+        <f t="shared" si="0"/>
         <v>45423</v>
       </c>
-      <c r="O5" s="78">
-        <f ca="1">N5+1</f>
+      <c r="AJ5" s="78">
+        <f t="shared" si="0"/>
         <v>45424</v>
       </c>
-      <c r="P5" s="76">
-        <f ca="1">O5+1</f>
+      <c r="AK5" s="76">
+        <f>AJ5+1</f>
         <v>45425</v>
       </c>
-      <c r="Q5" s="77">
-        <f ca="1">P5+1</f>
+      <c r="AL5" s="77">
+        <f>AK5+1</f>
         <v>45426</v>
       </c>
-      <c r="R5" s="77">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AM5" s="77">
+        <f t="shared" si="0"/>
         <v>45427</v>
       </c>
-      <c r="S5" s="77">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AN5" s="77">
+        <f t="shared" si="0"/>
         <v>45428</v>
       </c>
-      <c r="T5" s="77">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AO5" s="77">
+        <f t="shared" si="0"/>
         <v>45429</v>
       </c>
-      <c r="U5" s="77">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AP5" s="77">
+        <f t="shared" si="0"/>
         <v>45430</v>
       </c>
-      <c r="V5" s="78">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AQ5" s="78">
+        <f t="shared" si="0"/>
         <v>45431</v>
       </c>
-      <c r="W5" s="76">
-        <f ca="1">V5+1</f>
+      <c r="AR5" s="76">
+        <f>AQ5+1</f>
         <v>45432</v>
       </c>
-      <c r="X5" s="77">
-        <f ca="1">W5+1</f>
+      <c r="AS5" s="77">
+        <f>AR5+1</f>
         <v>45433</v>
       </c>
-      <c r="Y5" s="77">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AT5" s="77">
+        <f t="shared" si="0"/>
         <v>45434</v>
       </c>
-      <c r="Z5" s="77">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AU5" s="77">
+        <f t="shared" si="0"/>
         <v>45435</v>
       </c>
-      <c r="AA5" s="77">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AV5" s="77">
+        <f t="shared" si="0"/>
         <v>45436</v>
       </c>
-      <c r="AB5" s="77">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AW5" s="77">
+        <f t="shared" si="0"/>
         <v>45437</v>
       </c>
-      <c r="AC5" s="78">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AX5" s="78">
+        <f t="shared" si="0"/>
         <v>45438</v>
       </c>
-      <c r="AD5" s="76">
-        <f ca="1">AC5+1</f>
+      <c r="AY5" s="76">
+        <f>AX5+1</f>
         <v>45439</v>
       </c>
-      <c r="AE5" s="77">
-        <f ca="1">AD5+1</f>
+      <c r="AZ5" s="77">
+        <f>AY5+1</f>
         <v>45440</v>
       </c>
-      <c r="AF5" s="77">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BA5" s="77">
+        <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
         <v>45441</v>
       </c>
-      <c r="AG5" s="77">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BB5" s="77">
+        <f t="shared" si="1"/>
         <v>45442</v>
       </c>
-      <c r="AH5" s="77">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BC5" s="77">
+        <f t="shared" si="1"/>
         <v>45443</v>
       </c>
-      <c r="AI5" s="77">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BD5" s="77">
+        <f t="shared" si="1"/>
         <v>45444</v>
       </c>
-      <c r="AJ5" s="78">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BE5" s="78">
+        <f t="shared" si="1"/>
         <v>45445</v>
       </c>
-      <c r="AK5" s="76">
-        <f ca="1">AJ5+1</f>
+      <c r="BF5" s="76">
+        <f>BE5+1</f>
         <v>45446</v>
       </c>
-      <c r="AL5" s="77">
-        <f ca="1">AK5+1</f>
+      <c r="BG5" s="77">
+        <f>BF5+1</f>
         <v>45447</v>
       </c>
-      <c r="AM5" s="77">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BH5" s="77">
+        <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
         <v>45448</v>
       </c>
-      <c r="AN5" s="77">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BI5" s="77">
+        <f t="shared" si="2"/>
         <v>45449</v>
       </c>
-      <c r="AO5" s="77">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BJ5" s="77">
+        <f t="shared" si="2"/>
         <v>45450</v>
       </c>
-      <c r="AP5" s="77">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BK5" s="77">
+        <f t="shared" si="2"/>
         <v>45451</v>
       </c>
-      <c r="AQ5" s="78">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BL5" s="78">
+        <f t="shared" si="2"/>
         <v>45452</v>
-      </c>
-      <c r="AR5" s="76">
-        <f ca="1">AQ5+1</f>
-        <v>45453</v>
-      </c>
-      <c r="AS5" s="77">
-        <f ca="1">AR5+1</f>
-        <v>45454</v>
-      </c>
-      <c r="AT5" s="77">
-        <f t="shared" ca="1" si="0"/>
-        <v>45455</v>
-      </c>
-      <c r="AU5" s="77">
-        <f t="shared" ca="1" si="0"/>
-        <v>45456</v>
-      </c>
-      <c r="AV5" s="77">
-        <f t="shared" ca="1" si="0"/>
-        <v>45457</v>
-      </c>
-      <c r="AW5" s="77">
-        <f t="shared" ca="1" si="0"/>
-        <v>45458</v>
-      </c>
-      <c r="AX5" s="78">
-        <f t="shared" ca="1" si="0"/>
-        <v>45459</v>
-      </c>
-      <c r="AY5" s="76">
-        <f ca="1">AX5+1</f>
-        <v>45460</v>
-      </c>
-      <c r="AZ5" s="77">
-        <f ca="1">AY5+1</f>
-        <v>45461</v>
-      </c>
-      <c r="BA5" s="77">
-        <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>45462</v>
-      </c>
-      <c r="BB5" s="77">
-        <f t="shared" ca="1" si="1"/>
-        <v>45463</v>
-      </c>
-      <c r="BC5" s="77">
-        <f t="shared" ca="1" si="1"/>
-        <v>45464</v>
-      </c>
-      <c r="BD5" s="77">
-        <f t="shared" ca="1" si="1"/>
-        <v>45465</v>
-      </c>
-      <c r="BE5" s="78">
-        <f t="shared" ca="1" si="1"/>
-        <v>45466</v>
-      </c>
-      <c r="BF5" s="76">
-        <f ca="1">BE5+1</f>
-        <v>45467</v>
-      </c>
-      <c r="BG5" s="77">
-        <f ca="1">BF5+1</f>
-        <v>45468</v>
-      </c>
-      <c r="BH5" s="77">
-        <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45469</v>
-      </c>
-      <c r="BI5" s="77">
-        <f t="shared" ca="1" si="2"/>
-        <v>45470</v>
-      </c>
-      <c r="BJ5" s="77">
-        <f t="shared" ca="1" si="2"/>
-        <v>45471</v>
-      </c>
-      <c r="BK5" s="77">
-        <f t="shared" ca="1" si="2"/>
-        <v>45472</v>
-      </c>
-      <c r="BL5" s="78">
-        <f t="shared" ca="1" si="2"/>
-        <v>45473</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2316,227 +2316,227 @@
         <v>22</v>
       </c>
       <c r="I6" s="10" t="str">
-        <f t="shared" ref="I6" ca="1" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
+        <f t="shared" ref="I6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>s</v>
       </c>
       <c r="J6" s="10" t="str">
-        <f t="shared" ref="J6:AR6" ca="1" si="4">LEFT(TEXT(J5,"ddd"),1)</f>
+        <f t="shared" ref="J6:AR6" si="4">LEFT(TEXT(J5,"ddd"),1)</f>
         <v>t</v>
       </c>
       <c r="K6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>q</v>
       </c>
       <c r="L6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>q</v>
       </c>
       <c r="M6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>s</v>
       </c>
       <c r="N6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>s</v>
       </c>
       <c r="O6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="P6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>s</v>
       </c>
       <c r="Q6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>t</v>
       </c>
       <c r="R6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>q</v>
       </c>
       <c r="S6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>q</v>
       </c>
       <c r="T6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>s</v>
       </c>
       <c r="U6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>s</v>
       </c>
       <c r="V6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="W6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>s</v>
       </c>
       <c r="X6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>t</v>
       </c>
       <c r="Y6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>q</v>
       </c>
       <c r="Z6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>q</v>
       </c>
       <c r="AA6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>s</v>
       </c>
       <c r="AB6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>s</v>
       </c>
       <c r="AC6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="AD6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>s</v>
       </c>
       <c r="AE6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>t</v>
       </c>
       <c r="AF6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>q</v>
       </c>
       <c r="AG6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>q</v>
       </c>
       <c r="AH6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>s</v>
       </c>
       <c r="AI6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>s</v>
       </c>
       <c r="AJ6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="AK6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>s</v>
       </c>
       <c r="AL6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>t</v>
       </c>
       <c r="AM6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>q</v>
       </c>
       <c r="AN6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>q</v>
       </c>
       <c r="AO6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>s</v>
       </c>
       <c r="AP6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>s</v>
       </c>
       <c r="AQ6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="AR6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>s</v>
       </c>
       <c r="AS6" s="10" t="str">
-        <f t="shared" ref="AS6:BL6" ca="1" si="5">LEFT(TEXT(AS5,"ddd"),1)</f>
+        <f t="shared" ref="AS6:BL6" si="5">LEFT(TEXT(AS5,"ddd"),1)</f>
         <v>t</v>
       </c>
       <c r="AT6" s="10" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>q</v>
       </c>
       <c r="AU6" s="10" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>q</v>
       </c>
       <c r="AV6" s="10" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>s</v>
       </c>
       <c r="AW6" s="10" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>s</v>
       </c>
       <c r="AX6" s="10" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>d</v>
       </c>
       <c r="AY6" s="10" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>s</v>
       </c>
       <c r="AZ6" s="10" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>t</v>
       </c>
       <c r="BA6" s="10" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>q</v>
       </c>
       <c r="BB6" s="10" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>q</v>
       </c>
       <c r="BC6" s="10" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>s</v>
       </c>
       <c r="BD6" s="10" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>s</v>
       </c>
       <c r="BE6" s="10" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f>LEFT(TEXT(F15,"ddd"),1)</f>
         <v>d</v>
       </c>
       <c r="BF6" s="10" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>s</v>
       </c>
       <c r="BG6" s="10" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>t</v>
       </c>
       <c r="BH6" s="10" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>q</v>
       </c>
       <c r="BI6" s="10" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>q</v>
       </c>
       <c r="BJ6" s="10" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>s</v>
       </c>
       <c r="BK6" s="10" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>s</v>
       </c>
       <c r="BL6" s="10" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>d</v>
       </c>
     </row>
@@ -2691,19 +2691,19 @@
         <v>49</v>
       </c>
       <c r="D9" s="17">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E9" s="66">
-        <f ca="1">I5</f>
-        <v>45418</v>
+        <f>I5</f>
+        <v>45397</v>
       </c>
       <c r="F9" s="66">
-        <f ca="1">N5+1</f>
-        <v>45424</v>
+        <f>N5+1</f>
+        <v>45403</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I9" s="28"/>
@@ -2774,19 +2774,19 @@
         <v>50</v>
       </c>
       <c r="D10" s="17">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E10" s="66">
-        <f ca="1">I5</f>
-        <v>45418</v>
+        <f>I5</f>
+        <v>45397</v>
       </c>
       <c r="F10" s="66">
-        <f ca="1">N5+1</f>
-        <v>45424</v>
+        <f>N5+1</f>
+        <v>45403</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I10" s="28"/>
@@ -2855,19 +2855,19 @@
         <v>48</v>
       </c>
       <c r="D11" s="17">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E11" s="66">
-        <f ca="1">I5</f>
-        <v>45418</v>
+        <f>I5</f>
+        <v>45397</v>
       </c>
       <c r="F11" s="66">
-        <f ca="1">N5+1</f>
-        <v>45424</v>
+        <f>N5+1</f>
+        <v>45403</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I11" s="28"/>
@@ -2936,19 +2936,19 @@
         <v>52</v>
       </c>
       <c r="D12" s="17">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E12" s="66">
-        <f ca="1">I5</f>
-        <v>45418</v>
+        <f>I5</f>
+        <v>45397</v>
       </c>
       <c r="F12" s="66">
-        <f ca="1">N5+1</f>
-        <v>45424</v>
+        <f>N5+1</f>
+        <v>45403</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I12" s="28"/>
@@ -3017,19 +3017,19 @@
         <v>51</v>
       </c>
       <c r="D13" s="17">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E13" s="66">
-        <f ca="1">I5</f>
-        <v>45418</v>
+        <f>I5</f>
+        <v>45397</v>
       </c>
       <c r="F13" s="66">
-        <f ca="1">N5+1</f>
-        <v>45424</v>
+        <f>N5+1</f>
+        <v>45403</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I13" s="28"/>
@@ -3174,17 +3174,17 @@
         <v>1</v>
       </c>
       <c r="E15" s="69">
-        <f ca="1">I5</f>
-        <v>45418</v>
+        <f>I5</f>
+        <v>45397</v>
       </c>
       <c r="F15" s="69">
-        <f ca="1">E15+4</f>
-        <v>45422</v>
+        <f>BE5</f>
+        <v>45445</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
@@ -3255,17 +3255,17 @@
         <v>1</v>
       </c>
       <c r="E16" s="69">
-        <f ca="1">I5</f>
-        <v>45418</v>
+        <f>I5</f>
+        <v>45397</v>
       </c>
       <c r="F16" s="69">
-        <f ca="1">E16+5</f>
-        <v>45423</v>
+        <f>BE5</f>
+        <v>45445</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14">
-        <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="I16" s="28"/>
       <c r="J16" s="28"/>
@@ -3336,17 +3336,17 @@
         <v>1</v>
       </c>
       <c r="E17" s="69">
-        <f ca="1">I5</f>
-        <v>45418</v>
+        <f>I5</f>
+        <v>45397</v>
       </c>
       <c r="F17" s="69">
-        <f ca="1">E17+3</f>
-        <v>45421</v>
+        <f>BE5</f>
+        <v>45445</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="I17" s="28"/>
       <c r="J17" s="28"/>
@@ -3417,17 +3417,17 @@
         <v>1</v>
       </c>
       <c r="E18" s="69">
-        <f ca="1">I5</f>
-        <v>45418</v>
+        <f>I5</f>
+        <v>45397</v>
       </c>
       <c r="F18" s="69">
-        <f ca="1">E18+2</f>
-        <v>45420</v>
+        <f>BE5</f>
+        <v>45445</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="I18" s="28"/>
       <c r="J18" s="28"/>
@@ -3498,17 +3498,17 @@
         <v>1</v>
       </c>
       <c r="E19" s="69">
-        <f ca="1">E18</f>
-        <v>45418</v>
+        <f>E18</f>
+        <v>45397</v>
       </c>
       <c r="F19" s="69">
-        <f ca="1">E19+3</f>
-        <v>45421</v>
+        <f>BE5</f>
+        <v>45445</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="I19" s="28"/>
       <c r="J19" s="28"/>
@@ -3649,20 +3649,20 @@
         <v>59</v>
       </c>
       <c r="D21" s="23">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E21" s="72">
-        <f ca="1">E9+C309</f>
-        <v>45418</v>
+        <f>E9+C309</f>
+        <v>45397</v>
       </c>
       <c r="F21" s="72">
-        <f ca="1">AB5+1</f>
-        <v>45438</v>
+        <f>BE5</f>
+        <v>45445</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14">
-        <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
@@ -3730,20 +3730,20 @@
         <v>59</v>
       </c>
       <c r="D22" s="23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E22" s="72">
-        <f ca="1">I5</f>
-        <v>45418</v>
+        <f>I5</f>
+        <v>45397</v>
       </c>
       <c r="F22" s="72">
-        <f ca="1">AB5+1</f>
-        <v>45438</v>
+        <f>BE5</f>
+        <v>45445</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14">
-        <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="I22" s="28"/>
       <c r="J22" s="28"/>
@@ -3810,19 +3810,21 @@
       <c r="C23" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="23"/>
+      <c r="D23" s="23">
+        <v>1</v>
+      </c>
       <c r="E23" s="72">
-        <f ca="1">I5</f>
-        <v>45418</v>
+        <f>I5</f>
+        <v>45397</v>
       </c>
       <c r="F23" s="72">
-        <f ca="1">AB5+1</f>
-        <v>45438</v>
+        <f>BE5</f>
+        <v>45445</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14">
-        <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="I23" s="28"/>
       <c r="J23" s="28"/>
@@ -3889,19 +3891,21 @@
       <c r="C24" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="23"/>
+      <c r="D24" s="23">
+        <v>1</v>
+      </c>
       <c r="E24" s="72">
-        <f ca="1">I5</f>
-        <v>45418</v>
+        <f>I5</f>
+        <v>45397</v>
       </c>
       <c r="F24" s="72">
-        <f ca="1">AB5+1</f>
-        <v>45438</v>
+        <f>BE5</f>
+        <v>45445</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14">
-        <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="I24" s="28"/>
       <c r="J24" s="28"/>
@@ -3962,26 +3966,13 @@
     </row>
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="42"/>
-      <c r="B25" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="54" t="s">
-        <v>59</v>
-      </c>
+      <c r="B25" s="58"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="23"/>
-      <c r="E25" s="72">
-        <f ca="1">E23</f>
-        <v>45418</v>
-      </c>
-      <c r="F25" s="72">
-        <f ca="1">AB5+1</f>
-        <v>45438</v>
-      </c>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
       <c r="G25" s="14"/>
-      <c r="H25" s="14">
-        <f t="shared" ca="1" si="6"/>
-        <v>21</v>
-      </c>
+      <c r="H25" s="14"/>
       <c r="I25" s="28"/>
       <c r="J25" s="28"/>
       <c r="K25" s="28"/>
@@ -4195,17 +4186,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D27">
     <cfRule type="dataBar" priority="14">
@@ -4249,9 +4240,6 @@
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <ignoredErrors>
-    <ignoredError sqref="F18" formula="1"/>
-  </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -4380,35 +4368,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4696,27 +4655,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4735,4 +4703,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>